--- a/inst/dados_premissas/2022/fator_tecnico.xlsx
+++ b/inst/dados_premissas/2022/fator_tecnico.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md\inst\dados_premissas\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md-git3\inst\dados_premissas\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C49973-FFF0-4A54-8387-0561CC5EAE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,9 +130,6 @@
     <t>ENEL CE</t>
   </si>
   <si>
-    <t>ENEL GO</t>
-  </si>
-  <si>
     <t>ENEL RJ</t>
   </si>
   <si>
@@ -193,12 +191,15 @@
   </si>
   <si>
     <t>EQUATORIAL MA</t>
+  </si>
+  <si>
+    <t>EQUATORIAL GO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,6 +335,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -369,6 +387,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,19 +579,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -584,7 +619,7 @@
         <v>0.76182186977717603</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -598,7 +633,7 @@
         <v>0.77854300485665051</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -612,7 +647,7 @@
         <v>0.45951685453665703</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -626,7 +661,7 @@
         <v>0.61000472001716366</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -640,7 +675,7 @@
         <v>0.68218346025093757</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -654,9 +689,9 @@
         <v>0.68586553789780025</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>1361528</v>
@@ -668,7 +703,7 @@
         <v>0.81941569008849391</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -682,9 +717,9 @@
         <v>0.66104416261324583</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>80411</v>
@@ -696,7 +731,7 @@
         <v>0.70135454553383747</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -710,7 +745,7 @@
         <v>0.71085704311398146</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -724,7 +759,7 @@
         <v>0.80271445710857825</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -738,7 +773,7 @@
         <v>0.74489413530507564</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -752,7 +787,7 @@
         <v>0.77667187329725018</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -766,7 +801,7 @@
         <v>0.65330894197429656</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -780,7 +815,7 @@
         <v>0.70739679521697985</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -794,7 +829,7 @@
         <v>0.64012977803454962</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -808,7 +843,7 @@
         <v>0.57382116697786845</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -822,7 +857,7 @@
         <v>0.65686600082707802</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -836,7 +871,7 @@
         <v>0.68333622484385848</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -850,7 +885,7 @@
         <v>0.71878301288823154</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -864,7 +899,7 @@
         <v>0.54425347361657694</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -878,7 +913,7 @@
         <v>0.79535308929745685</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -892,7 +927,7 @@
         <v>0.71019031071962502</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -906,7 +941,7 @@
         <v>0.61506958545986257</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -920,7 +955,7 @@
         <v>0.64377061285553416</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -934,7 +969,7 @@
         <v>0.8085750315258512</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -948,7 +983,7 @@
         <v>0.82255368393982253</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -962,7 +997,7 @@
         <v>0.68079530914500774</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -976,7 +1011,7 @@
         <v>0.72025520853845848</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -990,7 +1025,7 @@
         <v>0.5648704163065561</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1004,7 +1039,7 @@
         <v>0.6307776781177209</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1018,7 +1053,7 @@
         <v>0.64996768394047066</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1032,7 +1067,7 @@
         <v>0.66207182457866487</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1046,9 +1081,9 @@
         <v>0.6871296641150314</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B36">
         <v>1137591</v>
@@ -1060,9 +1095,9 @@
         <v>0.60767484010749773</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>1285300</v>
@@ -1074,9 +1109,9 @@
         <v>0.69144008684827485</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>2655293</v>
@@ -1088,9 +1123,9 @@
         <v>0.51533250708091594</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>34907</v>
@@ -1102,9 +1137,9 @@
         <v>0.5722459016393443</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>624668</v>
@@ -1116,9 +1151,9 @@
         <v>0.69539680949359339</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>595690</v>
@@ -1130,9 +1165,9 @@
         <v>0.69322139817317907</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>1433574</v>
@@ -1144,9 +1179,9 @@
         <v>0.76957441805784155</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>667267</v>
@@ -1158,9 +1193,9 @@
         <v>0.80139677888137584</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>315275</v>
@@ -1172,9 +1207,9 @@
         <v>0.69848770847733999</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>329804</v>
@@ -1186,9 +1221,9 @@
         <v>0.69365538070660293</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>367731</v>
@@ -1200,9 +1235,9 @@
         <v>0.68149824311702178</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>275325</v>
@@ -1214,9 +1249,9 @@
         <v>0.68532277937497665</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>3813</v>
@@ -1228,9 +1263,9 @@
         <v>0.71377761138150508</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>11135</v>
@@ -1242,9 +1277,9 @@
         <v>0.71488186954288646</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>1785226</v>
@@ -1256,9 +1291,9 @@
         <v>0.56918083088605931</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>5620</v>
@@ -1270,9 +1305,9 @@
         <v>0.67016455998092062</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>19080</v>
@@ -1284,9 +1319,9 @@
         <v>0.77391092723290333</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>1417612</v>
@@ -1298,9 +1333,9 @@
         <v>0.71401473751013644</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>70550</v>
@@ -1312,9 +1347,9 @@
         <v>0.78836505045312832</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>7539</v>
